--- a/NearBy.xlsx
+++ b/NearBy.xlsx
@@ -65,26 +65,26 @@
 --------------------------------</t>
   </si>
   <si>
-    <t>Result(geometry=Geometry(location=Location(lat=25.2048493, lng=55.2707828)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/geocode-71.png, name=Dubai, opening_hours=null, photos=[Photo(photo_reference=AeJbb3e5iwDicgZN7oLKbmbn-dHiuOSvPJniF0sUq6gKi2fEV_v4cn0q0ru7FHuf5lkOnYcTjnRXA2o0tLIzwsoSp7mujVTGuLdygY76RrHllIB64NWf28hywhbEWZqdMxrrZ4UBZnu346YH-F4fGgUr2CEoBbhjUs14xEfamLZuBD12IkAy, height=634, width=960, html_attributions=[])], place_id=ChIJRcbZaklDXz4RYlEphFBu5r0, types=[locality, political], vicinity=Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.278898, lng=55.30446069999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Hyatt Regency Dubai, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3crX2EIeVFTzgPOabD-umDZ43f81TULOVaMYTer4_B5xK-3RABwTB7koeCV43hddG1UzSVQllWgOIOMhRczdMtWhv_2_hAneVMM0VgVRhjon28q-9r0--nbVivCaFKgeApF-WrV3bhYgYnZNsnRjNJgmvEp7FttV0NflEqGheAwuQo, height=2698, width=5228, html_attributions=[])], place_id=ChIJCw1TQ1BDXz4Rry47U_opJIg, types=[lodging, point_of_interest, establishment], vicinity=Al Khaleej Street - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2719745, lng=55.29890820000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=AL SHAMAL HOTEL, opening_hours=null, photos=[Photo(photo_reference=AeJbb3d_LXPRv2ncQuS8Ykx_GsLWZ9e6sPvoqazhqx5ljmZ4NN-n7Qe725yPVKbCwWrcczl5hAVJNmr9OgsSr7CASOP0Ir2C1bSSiXZ4CGWKNop8UFlOrJllJb89WDBsvvazXMX6Z09scf8IKXzQyWviRzFp3YKrErTR-_MJ2-6DMg46cO0D, height=3648, width=5472, html_attributions=[])], place_id=ChIJZa5W3EZDXz4RObPzapqA6JM, types=[lodging, point_of_interest, establishment], vicinity=behind Malabar Gold Showroom, Dubai Gold Souq,Deira, behind Malabar Gold Showroom - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2712083, lng=55.30138880000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Miami Hotel, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3cNiovkjqXq9GU-vPBbrjGYp3zPAMl8TUVSduXE8aa05bNSz2rArpaKyjMx5FXAuDsbsk9E2GhOLtHHODgqPr7YEgacihTz4ZGBoYrwq17s1YeGobUfqVOt0Af-HZQ7rT3sV5I569G4SvJz2XZ8JPV6yM78H10Ip1jl1FO5nz3P_z8, height=1371, width=2048, html_attributions=[])], place_id=ChIJv-_h3E5DXz4RFX-cnm19psg, types=[lodging, point_of_interest, establishment], vicinity=Naif Road, Near UAE Money Exchange, Deira - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2719759, lng=55.3021983)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Index Hotel, opening_hours=null, photos=[Photo(photo_reference=AeJbb3e14BkBuVrSJiRoCJci6V2Hg0KLJMVSrI5ZxilS5_oazEkr1eUxWdbb0GazmK2qoTFM3Wj0zXu_tvYC1MfKqlBfeov92b-1Ezd1oh2liOl3Lcdq-8VY2fgb3WdJ4VLaoujlanfZwxqKZP3IiHnI13k3IEVSBl4cnVaA9_VWC1u7BOf1, height=2160, width=3840, html_attributions=[])], place_id=ChIJeUGu6EVDXz4RYsGkTGZo8o8, types=[lodging, point_of_interest, establishment], vicinity=78C2+QVW - Al Sabkha Road - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2705301, lng=55.30238540000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Oasis Deira Hotel, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3ckvc-n7E9_qMKdGfekvt5EpfrYGhQWGDIDhP9Ch6iZK2BstEln1mjQP1Mwdva4SJ1LccYwRz5H1OhBcS7uvwdH1Yu8DMgLMfN_qwvcQte64hWGlhRJifbf_FVwaW2zkKaLstKP3KAii8wScafhea_EH8Uk5IwiS2t2-s41cLD2exZg, height=2250, width=3000, html_attributions=[])], place_id=ChIJGdfhEUZDXz4RJrNfTTZ3Y68, types=[lodging, point_of_interest, establishment], vicinity=Al Sabkha Rd - Naif Street - دبي)
+    <t>Result(geometry=Geometry(location=Location(lat=25.2048493, lng=55.2707828)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/geocode-71.png, name=Dubai, opening_hours=null, photos=[Photo(photo_reference=AeJbb3fkYVqVh8HQdHE4wrrzXHdPPd6uKtT3LohqZ0N1T45edKEXzpG0O0eQu9qcTjNK8WpvxoEiUtq6LoSIXx8p2stCpFM4903dY_TYDV-YQ7uUMyM-uGJhT-W0lH8XywSE3AdcbXr-89Ppj7BU3nkJeLLyNVHa0ykKRePIZG1EuqcRUsHI, height=634, width=960, html_attributions=[])], place_id=ChIJRcbZaklDXz4RYlEphFBu5r0, types=[locality, political], vicinity=Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.278898, lng=55.30446069999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Hyatt Regency Dubai, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3cyAxP_sJUOIgtMyv3-eyyTPZJ4FNSmOnluDQxqxFPYp5uLOJxM2Rgd2naQdOsQ53MGObmGKo-xlOLbe-m-RTvtoYg-HDBFEzmtKJpX7OQxj-4ZaOlI7se1CaRsG4EOG7oXR3uXZyP_9qqewEnUZFcXzJf4TQLA7ENI5Lnvizi6rUQ, height=2698, width=5228, html_attributions=[])], place_id=ChIJCw1TQ1BDXz4Rry47U_opJIg, types=[lodging, point_of_interest, establishment], vicinity=Al Khaleej Street - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2719745, lng=55.29890820000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=AL SHAMAL HOTEL, opening_hours=null, photos=[Photo(photo_reference=AeJbb3duUuC-3J_m_z5RQjOMdxELwBwmoMiwnIq1Cqqf8QdFQeQHoH2SpdxV6jeq90T5v93CcdCv5rXgf09DO7gHJcjtMx9WHtkEbIBflaBjx9LNHS4aLWSowqDLK60e9PF-lO5quvbnFXp2PV91aXMO_O1ecFr_7vHj-Vq1K0xA_C_TxIuw, height=3648, width=5472, html_attributions=[])], place_id=ChIJZa5W3EZDXz4RObPzapqA6JM, types=[lodging, point_of_interest, establishment], vicinity=behind Malabar Gold Showroom, Dubai Gold Souq,Deira, behind Malabar Gold Showroom - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2712083, lng=55.30138880000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Miami Hotel, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3f440yHSiPpIGv5S6YP8Weq5CPTdvPoW_DXa3pNZ9HL3lvFTRweiMSnu4CbQKCG0mL38jHz0Wm3G82bnpLMrRhEtyfDks9Td1fRR6YAsU3SHxR3qafu_geJ84zDcPzRaMEFEpOHVNtd0eiEQOG8EUEQikv9RHIICDp3WudltQy8RlU, height=1371, width=2048, html_attributions=[])], place_id=ChIJv-_h3E5DXz4RFX-cnm19psg, types=[lodging, point_of_interest, establishment], vicinity=Naif Road, Near UAE Money Exchange, Deira - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2719759, lng=55.3021983)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Index Hotel, opening_hours=null, photos=[Photo(photo_reference=AeJbb3efhgYCFd5cZjPdsby-VBAlFpkxnoRREDXyGXelPqIwxbFBXF6YHbtTQESc2tKc-P6BQIOt2HR_cLnHX5-4o-O2_MLS-jC61oiiLeb-YjpufUsyiRtW6ZJYP0SvfEZDxEL6SdMbSfKBaIukFBdPtYQ6UOJSDWxyYrAYtraIhDfGETyo, height=2160, width=3840, html_attributions=[])], place_id=ChIJeUGu6EVDXz4RYsGkTGZo8o8, types=[lodging, point_of_interest, establishment], vicinity=78C2+QVW - Al Sabkha Road - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2705301, lng=55.30238540000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Oasis Deira Hotel, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3cpPC2aN3YIOn4IHui8dx99D5gQZxt0npoEGD5Zisvtrp5wQKrsVPEqxtdyiK5tU-KPpj6k0iOQfYffF1krE7X6H0o-gMDN1mZ_KsEm008tIejkxCzIRnc2qqssiUNY-dDHU1XoE9LH_0JoydNiYB7SnmryQZVnl3CHy8SpTVp2OGag, height=2250, width=3000, html_attributions=[])], place_id=ChIJGdfhEUZDXz4RJrNfTTZ3Y68, types=[lodging, point_of_interest, establishment], vicinity=Al Sabkha Rd - Naif Street - دبي)
 --------------------------------Result(geometry=Geometry(location=Location(lat=25.2722118, lng=55.30235679999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Naif Index, opening_hours=null, photos=[], place_id=ChIJQ3Mj7EVDXz4Rqv0i3EgKJa4, types=[lodging, point_of_interest, establishment], vicinity=78C2+VWQ, Naif , near sabka bus station-deira Dubai - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2744339, lng=55.3007163)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=OYO 154 Blue Diamond Hotel, opening_hours=null, photos=[Photo(photo_reference=AeJbb3c3ilL8v2ivFOzCQqustSb0HTLQiAZEw2s99q3qpPFDGErvQBTOt1FjAHIwFoW4Wku9CIxEuzNTSLXMyMyLdTZyLb6gFrv5nga3rOWrkY919aLFOqzDcDrey2YvziKoMpgaFbibaDQLL_vMjqRG7zIC8LrSNanGPyxjDcMI3OjlSLUz, height=427, width=640, html_attributions=[])], place_id=ChIJg9NJFUVDXz4Rn0L7iajXo3w, types=[lodging, point_of_interest, establishment], vicinity=113-456, Al Khor Street - 12 Al Daghaya Street - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.268009, lng=55.2957394)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Ahmedia Heritage Guest House, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3d9FwAmrIZwPlmnui4CAcVv3N1MzqEdAZnWS2ClCJbpO9Ekrb8vHJ8lYII1MhH1iXAHP2VGP2l9tRxSJan64GjOqZaJ5KzJSLNQpWG562y72qbMo-pT3uWxgmWAAm6FzNHF-GnAF1hfwfZVFnClYWuo3Ssg567y93iaLW9pUcoDq2QN, height=664, width=1000, html_attributions=[])], place_id=ChIJg4XndUFDXz4R71aXP-BgxME, types=[museum, lodging, point_of_interest, establishment], vicinity=Near Ahmadiya School - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.278965, lng=55.3045754)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png, name=Al Dawaar Revolving Restaurant, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3cew9aUB_r5-QeDgSzhGgKVCK0lR60P6nPkokMBlYYHzPpNphaGfjdZ8NirFiPHJp4T5OwDhabe4ZkbfaNlyiqBWSG1VkI4xNTAvhoKyAyDfYXfRYy-zx5d7xNPM5U2fAAFH--XZ3ti2URRNhy0ZeXv7htc0YpILroMlakc4cqtK4mv, height=1333, width=2000, html_attributions=[])], place_id=ChIJyV_XaklDXz4R_2AWU3hy-fQ, types=[restaurant, food, point_of_interest, establishment], vicinity=Hyatt Regency Dubai - 25th - شارع الخليج - دبي)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2744339, lng=55.3007163)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=OYO 154 Blue Diamond Hotel, opening_hours=null, photos=[Photo(photo_reference=AeJbb3f-DkuaNLvzb3l5UPwyu7Uc-eC8AZVdA-2-TS00A5D4sJdwUDxXzsozuH8ZFZPDO8OaUnRWh1Zsun4nyYqN89NABpoiuU6Q2pClmfd4ecAV6vTww41t5fMZ6e1HRuATRn0S-rocMRmq0xxJAyZi-mNq2nL55cLkmNLEnWGzRZ45cfDn, height=427, width=640, html_attributions=[])], place_id=ChIJg9NJFUVDXz4Rn0L7iajXo3w, types=[lodging, point_of_interest, establishment], vicinity=113-456, Al Khor Street - 12 Al Daghaya Street - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.268009, lng=55.2957394)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Ahmedia Heritage Guest House, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3d5zjunqo5ccKvu_eQEglXwmksvq8K_Rn8RFwb0slTZk1wvvnnHZeqkyQkOpkdlIWrBFyjw8Gz0zCFitdKmshysrv3llYtHE0iR5S9e_r205WjU7nSQYb6Fmgjiv-8jdNz72ayAOLtBLnTXIrc0a45Fi8MyYcf89S2CXJm7JTtCkhFM, height=664, width=1000, html_attributions=[])], place_id=ChIJg4XndUFDXz4R71aXP-BgxME, types=[museum, lodging, point_of_interest, establishment], vicinity=Near Ahmadiya School - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.278965, lng=55.3045754)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png, name=Al Dawaar Revolving Restaurant, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3fdRuVsM61Chz_HirsAdqFVhL0Cw5zxmzkucM7mLKCMD06a9u_o9ITe95JIDLgncBr8I-WHTLSOYZgtXKz5SYsMIaumPsbeHcnEnSr8HcqZjZb1XTcpmgeTTLpVPksXF15A-5HFlB8sHA_5TH6rZRP0G3afmwhFA4ViKcMZVecMxOqo, height=1333, width=2000, html_attributions=[])], place_id=ChIJyV_XaklDXz4R_2AWU3hy-fQ, types=[restaurant, point_of_interest, food, establishment], vicinity=Hyatt Regency Dubai - 25th - شارع الخليج - دبي)
 --------------------------------Result(geometry=Geometry(location=Location(lat=25.2723894, lng=55.2969565)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=Al Shams Al Mushriqa Jewellery Trading LLC, opening_hours=null, photos=[], place_id=ChIJL__dckRDXz4RRW6o_4xCbls, types=[jewelry_store, store, point_of_interest, establishment], vicinity=Building 3B, Office No. 112, Hind Plaza, Gold Souq Extention - Gold Souq)
 --------------------------------Result(geometry=Geometry(location=Location(lat=25.27143289999999, lng=55.2987814)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=Al Shareeq Gen Tr Co LLC, opening_hours=OpeningHours(open_now=false), photos=[], place_id=ChIJb2xjE0RDXz4RtQmOW5_VVGQ, types=[shopping_mall, point_of_interest, establishment], vicinity=77CX+HGF - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2723344, lng=55.2984745)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/generic_business-71.png, name=Delmer Group, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3eaBI9Kls2QvP80XKX1VFKDWMpHsQPCwB-6NF7riokv90NCi_wYVhr56u0Nf5OGoux5P_C-JbYtuc8AkqWTzmGvoun-tKMx9rAU5RKTcexIfVoMMUT4DPt8yQmUWIE-Qnpq3G-_9PFTuYR6h_eqoPHMxfIMJzrPHd1eQA3hMGDf6ABa, height=629, width=1122, html_attributions=[])], place_id=ChIJ_2iqZERDXz4R47jbg5jvRC8, types=[food, point_of_interest, establishment], vicinity=1, Al daghaya Building, Behind National Bank of RAS AL Khaimah Gold souk)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2723344, lng=55.2984745)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/generic_business-71.png, name=Delmer Group, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3fmqo19dzc1Kg8lHEIVAljeLkZ0R8Uxcstnk4iF3I7lDF7Sw6ZkwX10V5zoh85CpDrvUb4nWJJN3OOFuDn7fFSMY7ZTN2yZsugmffbiANMpYOzmtzXTyrSvwRti0wEjhbICIPkdDJp94c_3p4k2t1BUMRdK2fq7JOpXLc_12L4qB8zO, height=629, width=1122, html_attributions=[])], place_id=ChIJ_2iqZERDXz4R47jbg5jvRC8, types=[point_of_interest, food, establishment], vicinity=1, Al daghaya Building, Behind National Bank of RAS AL Khaimah Gold souk)
 --------------------------------Result(geometry=Geometry(location=Location(lat=25.273106, lng=55.30186)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/generic_business-71.png, name=Manchester Tailors, opening_hours=OpeningHours(open_now=false), photos=[], place_id=ChIJb5iXokVDXz4Rm1KpQDw9-Mw, types=[point_of_interest, establishment], vicinity=Al Sabkha Road - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2744519, lng=55.3013466)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Ana Palace Hotel, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3cPJQ3fFYUbMJa8Vsr8Q-1qkL2PIhYEiYrNjt9mmKHpVBFdioPPUC2_uat3bf-YTerPtf2fDZvCIROK6qs8nHWReW7YGdATlVlVCu4FJdqIEIamfoVBrc71Wr67HjzuKoPeSfrKF-NDTeENT5qzhSsT34N9ZEN15qafGJNjD5WktPAD, height=2322, width=4128, html_attributions=[])], place_id=ChIJMzM40UtDXz4RE2ZMi45muog, types=[lodging, point_of_interest, establishment], vicinity=12 Al Daghaya Street - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2709048, lng=55.2974727)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=Sky Jewellery Gold centre, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3cZ7DbDnApYOtp4A0zsCi5u8j3Ca_IZRbKaabjXU5_wLotSHPWFU4Tuxgaq4Nqpd-v68eiVdXaLYIy402cETsZbLIivcfbb-m9O5XN7XDfqNNejisVP1a3tITRNrrYOZKbY7JT3OYOukJ5pC2OCpFELc6Mq4vWtpA4JYJT9fNWTB3iT, height=560, width=996, html_attributions=[])], place_id=ChIJfXD420NDXz4Rm8uhmu4NmmA, types=[jewelry_store, store, point_of_interest, establishment], vicinity=Al Khor street, Gold Centre, Ground Floor Deira Gold Souq - دبي)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2744519, lng=55.3013466)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Ana Palace Hotel, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3dUUjh_pOghpS7RVGmYntnJIdMrPb5WGFT6XBAcLI-FjgwVwuhrglOFoxwDI7DBKVNbrUKNGGJCMqYHySsaX4QSlONKykmPJHt5UsxnJp0Cj6CLtohBFB9FV4JHz3CqiJJS3SUQwkA_i_JFNYYe8WD-FS7UO85RtMNn2GzJBMiWYPH1, height=2322, width=4128, html_attributions=[])], place_id=ChIJMzM40UtDXz4RE2ZMi45muog, types=[lodging, point_of_interest, establishment], vicinity=12 Al Daghaya Street - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2709048, lng=55.2974727)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=Sky Jewellery Gold centre, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3fGFLNexa--se-D8ymdTq0BromXkSZBjDKCzhv7ly_UyxeDnfrDdfdW5xooW8hcihEUbAHftSKl9tHHYA0nC-JjnVEI-nvrw2SlZgGUA8hpRZit93vXn7yXXgOYQ2-nzcuI34HQge3qleuWyGCZL1XWD3Sl3NPS6RoXF0siBd3g_K8V, height=560, width=996, html_attributions=[])], place_id=ChIJfXD420NDXz4Rm8uhmu4NmmA, types=[jewelry_store, store, point_of_interest, establishment], vicinity=Al Khor street, Gold Centre, Ground Floor Deira Gold Souq - دبي)
 --------------------------------Result(geometry=Geometry(location=Location(lat=25.273843, lng=55.300186)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=Fancy Star Diamonds, opening_hours=OpeningHours(open_now=false), photos=[], place_id=ChIJiR-q_ERDXz4RZQwglzybv0E, types=[jewelry_store, store, point_of_interest, establishment], vicinity=Office #310 Gold Land Bldg, Gold Souk Deira, P.O. Box 251497 , Dubai , U - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2734978, lng=55.2984715)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/parking-71.png, name=RTA PAID CAR PARKING NEAR GOLD SOUK, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3ebaMX4_hewYcNBBDrKj3ZSFRZXdOWtmXhGKQMgly5ZZTgHraUFF3M1uGCfon_njwEV_x-mJDSNB6sCbySVizQxdSRa6MTtKgjM72T6Vp79NWlzZUJtmINH8ilz4Opev8VODPoalyurgIPGHdazAF8KXwArETAsrDyPc5OmyXBkm0ZG, height=1152, width=864, html_attributions=[])], place_id=ChIJXWV0kERDXz4RFJB8whhyxKk, types=[parking, point_of_interest, establishment], vicinity=77FX+99X - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2764771, lng=55.30073629999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=Redsteel Technology LLC, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3eJBYropb5YsdwZzSdAK7Kfbnwk_R64U9AbQIX5wFVQC1ge8Y-sylJHyA76qdNb5KaHyATY5E1P4f2R1Aduq9KSqyoF97_j_P-On8-H3RzS8HZo2FKmM_iMUhre3IxH4T2I9uc64TiHPP_-6-36TgmT-wLosijjcXr1SQ_PFHZD2Ao2, height=2988, width=5312, html_attributions=[])], place_id=ChIJ19QVS05DXz4R0HtT4I95NEE, types=[electronics_store, home_goods_store, store, point_of_interest, establishment], vicinity=Office No 204 Sherina 3 - DEP - دبي)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2788468, lng=55.3309395)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/geocode-71.png, name=Deira, opening_hours=null, photos=[Photo(photo_reference=AeJbb3dsRb2lHYb59L9ki9wgOcqOmsdDCFnQBR84AHmGNTThyZY5RYa7372jZhKbx16k1qnuGanEXS7JG2L3d8VLiupsmjjewFm4xqu6Fk24-odfCSPOSa0dmhZft1eQJ7-_bVM__el98NDz3FoQSJf0liZah_K-na0DgN5zjQFXDFfJr6-o, height=3456, width=4608, html_attributions=[])], place_id=ChIJk67NN09DXz4RkYS3oWNjdd4, types=[sublocality_level_1, sublocality, political], vicinity=Deira)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2734978, lng=55.2984715)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/parking-71.png, name=RTA PAID CAR PARKING NEAR GOLD SOUK, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3eSQMtXviEOe_gibyND0r0pbhtJk7Uiwpg8Gw88p1YcJmk5hFrVxdkZV_5maH-l_vSkuFKTRqvLRHVaenm_-050qCrL-IOEqH6yq40DuAzBqnImS6ppvZxlK22BHFleVMofMt7U8sB1p9VCy5zrKGlu-dQEPZXj9ABRI6eOusgMbTfO, height=1152, width=864, html_attributions=[])], place_id=ChIJXWV0kERDXz4RFJB8whhyxKk, types=[parking, point_of_interest, establishment], vicinity=77FX+99X - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2764771, lng=55.30073629999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=Redsteel Technology LLC, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3eeuy6oHo151_aEit2aYDUkI6oRgTX-C6RzyFOJFC4YYZbs4zwNJt4gkq0FNA3b5KMzjLowRqLW6KkeUDa9IymyWJZjyZjR9XufRQTblEU7AP2-PFPdrjiuVWlAaE8VN0iDguGvteQBO_gOKOKrw6YKlsRmbuU6zyFtVyEtG5WqNUZ3, height=2988, width=5312, html_attributions=[])], place_id=ChIJ19QVS05DXz4R0HtT4I95NEE, types=[electronics_store, home_goods_store, store, point_of_interest, establishment], vicinity=Office No 204 Sherina 3 - DEP - دبي)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2788468, lng=55.3309395)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/geocode-71.png, name=Deira, opening_hours=null, photos=[Photo(photo_reference=AeJbb3cwMG8iyu3e9GgUf3BRTAx_DF-N9aG3c2w3VZbz4CiX5L4JsnPZjxX59In1vjJaAP7XLhqB7LD2Ij-NbXiiqwDlbmtGXbev0g2x0uxjudeU5iDkIKKxLxjNq1sq6tKDvi-HXVjjCMvZt3zaHI4uHFAU4NSb1kAaxA_M6_Pl1vXep0HE, height=3456, width=4608, html_attributions=[])], place_id=ChIJk67NN09DXz4RkYS3oWNjdd4, types=[sublocality_level_1, sublocality, political], vicinity=Deira)
 --------------------------------</t>
   </si>
   <si>
@@ -124,26 +124,26 @@
 --------------------------------</t>
   </si>
   <si>
-    <t>Result(geometry=Geometry(location=Location(lat=25.2048493, lng=55.2707828)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/geocode-71.png, name=Dubai, opening_hours=null, photos=[Photo(photo_reference=AeJbb3dYXpklL6vReBeJ2J8C_7UpSfjXMWF-yd5DuM7c1Q1tPcsDSdd0hUoNMUclcXhAduEw9NmwzE7teCtnRmyDOmQGUg06QyBvvAwDudqWvepPw7dplGu_ppRB_llom-Sg-vLA0SYKe-5d_QFPDTPgI2zj2qPxemMrVLaDKsP_PsgwEFCy, height=634, width=960, html_attributions=[])], place_id=ChIJRcbZaklDXz4RYlEphFBu5r0, types=[locality, political], vicinity=Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1975148, lng=55.27487319999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/museum-71.png, name=Burj Khalifa, opening_hours=null, photos=[Photo(photo_reference=AeJbb3dTbUtEnxKnX1IYnyFc4Eha5FnqLGrVLV9I2V3v8lvWg1zrM5qX6pwrDyzhwK9x2GQY6qxve5K7Ii6Xwn80L9b70PIR2thOoEBsRIjTc61e10VXCLQGVIEzTEQr9T6FMGDWJtKotQ-RBhpIByOislgPfeCXqc-CHvBgSFEQV0qJ8qFL, height=4032, width=3024, html_attributions=[])], place_id=ChIJ2Y-H54FCXz4R2gdP3D5Mk24, types=[premise, point_of_interest, establishment], vicinity=Downtown Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1936328, lng=55.27907099999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Address Downtown, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3cLWQ_q0goJpdsp90ktvclvYBwLjuTcBpR9nJBDGFMzAyrvOiUI7Ed4OQmeVmcQM3Cee4Qqj3mOgp4gpYCfkwVYtMvYlzqRFuWbGuw_I6mPQnQJsWZoPbACPsRTAXGsrK8_00tO9ZaBCGvtMRUjpSewNtnMzHZwjQHqf1WY_T3fSuK-, height=5504, width=8256, html_attributions=[])], place_id=ChIJ7w0gwihoXz4R4F5KVQWLoH0, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Mohammed bin Rashid Boulevard)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2028212, lng=55.2779596)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Swissôtel Al Murooj Dubai, opening_hours=null, photos=[Photo(photo_reference=AeJbb3eWtGvH6V6Vc9bWwkfcbtmLQz2XEX42Wzy01PgJU0hLxVo3Bx6fHhfyKcXNpxX4LCUWC4Eja5AJ3Hsoc5u1hk_fnnfhJWXLEk3HivxzKrK52Sax_twZMYeQd3POeVppVWQ8zoSC-bbzIex1ESCrO4Fz3glwxo60GtPLzW8SurHEjddP, height=4935, width=6175, html_attributions=[])], place_id=ChIJDzGYLNpfXz4RdDaCf_vLFf0, types=[lodging, point_of_interest, establishment], vicinity=opposite The Dubai Mall, Al Mustaqbal Street - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1973208, lng=55.2742121)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Armani Hotel, opening_hours=null, photos=[Photo(photo_reference=AeJbb3d6_wZ6ijR7wAkjXY8JeeepB97N7cIEE6DqaCoAoNluSGOMLP-9B06VbM7JJ0pMrcXCTFwigfdJ0tzDTQ2HPV9LShDCtVqqRfKEihuTDs4C-1FVdxa8CaBkGdS776cv7ymeRFM6NG7ZgD_rcFZyWuANNMRuxtB8cQ262orVqz1dr-U, height=1123, width=1500, html_attributions=[])], place_id=ChIJh51qx4FCXz4Rxdkio9LbXOs, types=[lodging, point_of_interest, establishment], vicinity=Burj Khalifa - Sheikh Mohammed bin Rashid Boulevard - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1936928, lng=55.2757276)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Palace Downtown, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3dAQ7v_kdlXPTQzYgVdQTJ4qKqdchnJTkiKMMn93roBlMGdIB5YaCbpaqxaFQertn4dquhqXr14MP7yjKKsKlv9_b4VkQH5tVE-BBmd0ckhuR9X1ujryuzeLtMQJIY34ScYR0R8isxRvzt7gxIXvroPxDSVySygwZ4ZeOd7TeiKb7Fa, height=1821, width=2732, html_attributions=[])], place_id=ChIJoYrk4C5oXz4Rz8zfVMtxSpU, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Mohammed bin Rashid Boulevard - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1998429, lng=55.277452)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Address Dubai Mall, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3eiFjMmkMxiz4DMyWDyL80Ij840pSsaGPyCVvkVSwLUMXOFW5lwRYQ9Q2td-chxovmmSrY6o6hDL_nZBbZ9EzNNOYdU78zRFxlVpWyrzP9BHmZh_Y10hYzVI8seLBjA4nGjBWy0S0Ob2jh-6OtW30AxM9u5IIkGiyjDT1TTf53D2QQ, height=5504, width=8256, html_attributions=[])], place_id=ChIJ6zFaTIJCXz4RzwlBbB8DgA4, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Mohammed bin Rashid Boulevard - 31166)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.19523939999999, lng=55.2836004)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=DAMAC Maison Mall street, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3c7d9DUlLSjmyrSVgtJlovoMXWyTDGQGTAurmnbZgbYOC2Sxkmd7RVWGY4szb7pCemcGlY_lT__vyOcgj79yYg3sDC-ftQNV2zJfng2rUR4qV8BIYiSlyrHFXeP9VUJ77LI20k7myHFSVfHBU9I1Sxp5A1C3hwb8Kcpv36F1DYhSolP, height=2268, width=4032, html_attributions=[])], place_id=ChIJ97-rXyZoXz4RLCWJBpv72qw, types=[lodging, point_of_interest, establishment], vicinity=Umniyati Street Burj Area - دبي)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1999735, lng=55.269159)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Sofitel Dubai Downtown, opening_hours=null, photos=[Photo(photo_reference=AeJbb3dGDan8PDKf1iglJ7AWEd2XJY_BtsooZA8AQP-lKjnGxpVLFCT-L_gyPLTDSPfZwsYVgtrB6-9Iz3jBsx9ce-6pYDJgtrGBqv2tXShPa-4fwQhMydgiTUocaycYkmLq6cJPqoZpRHzhIDZEGV1gsnlv55KQN6vdP5xqWJgRZQAgMi2A, height=3024, width=4032, html_attributions=[])], place_id=ChIJGak-5H1CXz4RrZtnu774xQY, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Zayed Road - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1975148, lng=55.27487319999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=The Residences, opening_hours=null, photos=[Photo(photo_reference=AeJbb3fv65KuBIi_gkFRyWRx-G9pCUpDShAR1Ht3wATlmt3v_h9krd_b0Y5dEzNoqEClRVGD9LuEiQ2UilpgNK4JvN80m7zlqygtCCuyd2unagSbBFoaHiituZM_xas-lYeJ2K8SZWok6RLz4r-o5f7VKLYGb3RCtgfOTx_A2tnb1KUU6OZT, height=2000, width=3000, html_attributions=[])], place_id=ChIJA9YTje1DXz4RZrQShZg-C5Y, types=[lodging, point_of_interest, establishment], vicinity=1 Sheikh Mohammed bin Rashid Boulevard - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.20621109999999, lng=55.27273220000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Dusit Thani Dubai, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3fiSDwtrMHcbjSnriSMPhSIl0d07Mvv1uE-QtI5KhXmJzmNiRSbwsIP98Xh-z0-I-t68nL3nX9kA1m5qTU5XCyGP7A-kjZVEVH-CqZcxuENkTFP7PnJis7-8TBpFpVd2dt8dg9158VGsPFx6rbE6Hh27tItXYwWdGQnOTVvYTLUsMj-, height=4399, width=6623, html_attributions=[])], place_id=ChIJy8SDBI1CXz4RTalWPBQmRJs, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Zayed Road - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1928741, lng=55.27245329999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Ramada by Wyndham Downtown Dubai, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3euwYW2gfsOGYadD_r_8_llqGcSawVDgMXEFQtoqCMhWGabuSwKYBRNIHV_q7ctk6aXlJA_7Qc0mnffRcJB6DEu9-lYa_Z6KJYB0pwg9tXeceupU66xQhkdsLjNMGxVG-T_iA0uQ1wkqHNZRSO2Gs4wVDdYTF-h-i8S_XkYYLhmUcyh, height=400, width=711, html_attributions=[])], place_id=ChIJJxx_kYdCXz4REnJnPtYpvXg, types=[lodging, point_of_interest, establishment], vicinity=Boulevard Street - دبي)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1961266, lng=55.28017759999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png, name=Ribsandrumps, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3eOZ2H5yPbbICGCYabSmF35qdZxLwoUfm5GXq5FxfwjUKr17n3ZvTydNyFOdlTLeRFJ6kXv0GioggFH_6D6tATnrHiCqu4Vtax1yqP_0YICisHQIRecWCCVWvo1bWp4p5Q9U7bXVfHHFSinwYP9csk1TllJnt-QybKVZz_5U1Qd_0wq, height=2880, width=2160, html_attributions=[])], place_id=ChIJw8NQbyhoXz4RzjaPptJmS-A, types=[restaurant, food, point_of_interest, establishment], vicinity=57WJ+F33 - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1918989, lng=55.2727574)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Dream Inn Apartments - 29 Boulevard Private Terrace, opening_hours=null, photos=[Photo(photo_reference=AeJbb3fz5N_AXiOVjBH0uyCqAg6KR8Ufl6Duif3AZCbxbal6H5ABo7QYeoevZsK7o-FGxexYSuMQst0Ax3EYGKP3zu3tM83tP4w64lpp5WVO_PV1Pa11AwJ_09FgvX4pNxxFx0IH5dRGTX7MOB9_4B8d0uiTfjCPnZaveEO5HhhdIzIk90HS, height=4640, width=2088, html_attributions=[])], place_id=ChIJ___PdStoXz4Rvp_e34FnQM0, types=[lodging, point_of_interest, establishment], vicinity=29 Burj Dubai Boulevard - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.19816519999999, lng=55.279212)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=DHL, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3fpZOkL6ZGqfdoWOl_GeM1Rvv-wK1mg5xNdBWfUSMLjZ9et-VF6BCWaMLHXZKfRHJTZ2nXGZ-JRvRJUg7MQW92cfHP_3Zcumbze-0NT1w7-hQ_xjc7jhaEBMKpvkZ0CF9CWcmcLLpoCGPdDHc_xwcF4bL_gr_y9yx433JL6S4MPYvUs, height=775, width=1550, html_attributions=[])], place_id=ChIJv01pm4JCXz4RkgK89uiHUyU, types=[shopping_mall, point_of_interest, establishment], vicinity=شارع - ٣١٢ - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.19702269999999, lng=55.26989149999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/generic_business-71.png, name=The Lofts - Emaar., opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3cPS6MHP26VGI5CJXYw5yrnNmjvaqCUTo7cDniZUunYU6iGp-gcMWGUjR8YNcHmdVz3nh0Z52QyM3ckgTH_LUFrRbM-Ph3lfCP09G4I26dYYDF-jUce8D5O8WDsoQOfpZK_xoDo5JemumJXoHT5fSVLefFLqSswsIj7lidIwE8WrTNp, height=707, width=1600, html_attributions=[])], place_id=ChIJSxsN2X9CXz4RM32iC0h0YnU, types=[point_of_interest, establishment], vicinity=Sheikh Mohammed bin Rashid Boulevard - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1911134, lng=55.2776665)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Manzil Downtown By Vida, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3cerczYRndyNURpEpCx6MQ6N4azyG_u_IOw6b4QWNYumZQLLkJKY7lGQLVSxYlvOH_6u85JrIL_n7fziw2Msd9rpjSt_58-WZCqE4GxvqTPG2en2kCR9mkrCIq6aQrLIrqbpuw0bObYImry9XkTFpZEYGmuD3jjzLlHXKTVzivRr1qv, height=2049, width=2732, html_attributions=[])], place_id=ChIJsVRTwS5oXz4R7xWV3Zb3jxM, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Mohammed Bin Rashed Boulevard, Downtown Dubai, 114822)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.195074, lng=55.2800733)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/generic_business-71.png, name=KidZania, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3cwBRsIksr5lVzWYJIlDzhue97AeDM4trGY8FAvTR3dxaMZ9mbQCmw2Y_WfpW6unCQsYr6Uh4IH5Eo7qqMAuB_073o8RNwhY724YD1tMnekfgjhBQzGOb-zvCxvACrFWv72r-Xf_cDM8k_lK5n3FPdE3ACpP2geOz1akV4rfrBFckF8, height=3072, width=4096, html_attributions=[])], place_id=ChIJiykKVyhoXz4RPNxlUTJsgyY, types=[point_of_interest, establishment], vicinity=The Dubai Mall, Second level. Cinema Parking - شارع المركز المالي - دبي)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.1976699, lng=55.27724260000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=Louis Vuitton, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3fQDl4i1To7NQ1iir3Q5TrzpJFy1h21dmbdm4eyTR-b6X9gxEamSQ2-qDSBgqKzylxb8dXthfU78n4sN1XPDHGXWuGvjE3fE8WkMjZcBCFBY5FnKoOygudFGJsuulelwkix8qCJPWsk1zEc4SE1GA9uIXLsVz8ovhbR-NsLdleMHbul, height=257, width=456, html_attributions=[])], place_id=ChIJN9MwoyhoXz4RZsoWmeYP9Rg, types=[shoe_store, point_of_interest, store, establishment], vicinity=Financial Center Road - Dubai)
---------------------------------Result(geometry=Geometry(location=Location(lat=25.2190916, lng=55.27910499999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/geocode-71.png, name=Trade Centre 1, opening_hours=null, photos=[Photo(photo_reference=AeJbb3f4uaSYlz__j5nD-lMzxz7Pz7oz6_F2GdC9TJ1JOgR4CtFsFTAXSbIFcoH6UCDvia1x4G0e_0CzJ0I2vpIQ-krv9c20XNaxBKgbxNUbh53TkgZ7xs1LvaMwmI3qXzFksKeen8-s--Jrvxa9OG4-0MUl1DzMBB7PfpvhJDQmsq8luQPX, height=1840, width=4000, html_attributions=[])], place_id=ChIJB6evL41CXz4RCjaC2TKfBTs, types=[neighborhood, political], vicinity=Trade Centre)
+    <t>Result(geometry=Geometry(location=Location(lat=25.2048493, lng=55.2707828)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/geocode-71.png, name=Dubai, opening_hours=null, photos=[Photo(photo_reference=AeJbb3dfLlQqTEmV4Gfmu0s3CSsyxj4qp3fzR9Cn2LfnRpdZHx2Rg7NMmjb_83IkQX_Fx7A1ubPIjl7_oCw29i-8ZWuRFlNnL2KFHm06rtPt7xEDfsUFt4a0HPMp6vvetb3wB9YL06DZFzTu9QTdjKBV9DdYri4ED4p03pgkaurqHITnmPCz, height=634, width=960, html_attributions=[])], place_id=ChIJRcbZaklDXz4RYlEphFBu5r0, types=[locality, political], vicinity=Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1975148, lng=55.27487319999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/museum-71.png, name=Burj Khalifa, opening_hours=null, photos=[Photo(photo_reference=AeJbb3d20ylxIUgcAG-6oJKKws8QrMS4RS7ZbYm11Fngxt7Fw34qRkmIM5NiHCucfaiEqgXUBK84rIvs0ecHX2wR4DhpUX6XDiMrNpk5iP6S32QuhR-ACaW2eoLdE0M-oA27OYkgKmVYbbqyVTmfg1PJF2_k-Gv5_brt_m3ME_C6cOsyYrGO, height=4032, width=3024, html_attributions=[])], place_id=ChIJ2Y-H54FCXz4R2gdP3D5Mk24, types=[premise, point_of_interest, establishment], vicinity=Downtown Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1936328, lng=55.27907099999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Address Downtown, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3eJO1g346P3OFbduEWdUzI4pKLw_CtFXcndXmCLMtcZRJDxrIv1CtYNi2icetyRLvVtOsl4xDaM7vgBuzQnCmT4rg5oT7IQGJveMZI016sw37v6OsgcMorE3MX3zRsnEks1RtYryUgYUO9yrWo_23XOZsentODZdaFzZ6HzorWmpnyD, height=5504, width=8256, html_attributions=[])], place_id=ChIJ7w0gwihoXz4R4F5KVQWLoH0, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Mohammed bin Rashid Boulevard)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2028212, lng=55.2779596)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Swissôtel Al Murooj Dubai, opening_hours=null, photos=[Photo(photo_reference=AeJbb3ftMk5QYBwcysDaIrzFC5vezPXwzAwN7NHPnrJb6UHBwrXiRR8gduzGZLN-VtYYu631qR70I-yk3J5iSHA9WQpxyVzf4Xfbm-LVzcyDXLrh9RGN8VA_HcABA9KPBcqjFsJpo-oDX5gp1m7WpJS-Vov-n83c9D8NI8oRYCzy2fF2PkNy, height=4935, width=6175, html_attributions=[])], place_id=ChIJDzGYLNpfXz4RdDaCf_vLFf0, types=[lodging, point_of_interest, establishment], vicinity=opposite The Dubai Mall, Al Mustaqbal Street - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1973208, lng=55.2742121)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Armani Hotel, opening_hours=null, photos=[Photo(photo_reference=AeJbb3d9F4cwtnkekHiSDnwQ5Rp5ygAWDElR2iTEVH0wkGhS53HZfV1qd6d-ZSTkoAtDa2U2GOgkfHHnJbBwK49-QoN0BAzOfno1Gyn_iT99YvdfNfyiZCLaQk2rhJEBiPzUDL3xU9AZwYLd5yuBhjemRoe29Scv0coh1p_tBhSAiXoHfxo, height=1123, width=1500, html_attributions=[])], place_id=ChIJh51qx4FCXz4Rxdkio9LbXOs, types=[lodging, point_of_interest, establishment], vicinity=Burj Khalifa - Sheikh Mohammed bin Rashid Boulevard - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1936928, lng=55.2757276)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Palace Downtown, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3cP1XQmYF4902nDdME0-iHLKfGu_4ebwx8_KvXCELyuw_PC8JaiJVykJL4UpKn6WQUuVJ1WbsTU5OF5nztQcPkkNoea_PdkS1mCqJ9jRuE_Q4b-d-tIWrjUUlecUqbwDoiKjcex89p9lG13evDdLTH27mlPejGA_k_FDAVEvuCPyO9U, height=1821, width=2732, html_attributions=[])], place_id=ChIJoYrk4C5oXz4Rz8zfVMtxSpU, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Mohammed bin Rashid Boulevard - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1998429, lng=55.277452)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Address Dubai Mall, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3fX3mW1lDZPeoWpBMPa6fQae1lFapi8lVbBc4VyJ_bTfnJvcKF7N2UAuA0xNa8XLnHkRMJMAzu0tRzqmKm6RoTBL8R8-MwLhqgQkiiIXeebzyHftXDyI21_sBSPwZ9_9bZoiK-Sjdm0deAsXh7DXbtcji7T6ovYpathnNlmW4TGJxU, height=5504, width=8256, html_attributions=[])], place_id=ChIJ6zFaTIJCXz4RzwlBbB8DgA4, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Mohammed bin Rashid Boulevard - 31166)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.19523939999999, lng=55.2836004)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=DAMAC Maison Mall street, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3et1nfNiDmRv8bn03XRU4UEVrDnK1sqpUZJq3uLcgjjxtbetlpDeNsdqafaQ04J3XQ6FTw6tSDzKPvLKp9s_vUK6EEzJ_DgWvOWoC4zN28k5fkapr3h_eqsVOkbiW2SPCeoiyV3tO1m1q9l-y21hrI3_8W-sJqiOxMCP6sh_b2Pwl69, height=2268, width=4032, html_attributions=[])], place_id=ChIJ97-rXyZoXz4RLCWJBpv72qw, types=[lodging, point_of_interest, establishment], vicinity=Umniyati Street Burj Area - دبي)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1999735, lng=55.269159)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Sofitel Dubai Downtown, opening_hours=null, photos=[Photo(photo_reference=AeJbb3cPI9WDE8pD_oWySF4Jv3sbOo77e7ss6GLDFuaey04YPZv1FAqDXdqIIicQa6_5jfdf0qgpMLo2ZbnfCgyQ0nh658RyUYsXX0I9B9E9jZwGANQqlY81I9OBmN5vc-ZNjxVTAwVArDfVju2EGmf4831v0zjanmb_ixwEegDiQ-rZNIdz, height=3024, width=4032, html_attributions=[])], place_id=ChIJGak-5H1CXz4RrZtnu774xQY, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Zayed Road - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1975148, lng=55.27487319999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=The Residences, opening_hours=null, photos=[Photo(photo_reference=AeJbb3e17HWu7I1LuizGBGVLmUsRixg_vt3eCSoVmdyqeCDQ4ozEfgUz3CayYp278zcIGyq7eqhHMk_S0pxdkY_Z30H727KW9Dny8dLMaxyjIcdduElG2_Q8VdvJtm6Z9L8XVKq7KxtmKN6RZs-H_l5mTwbDh8cq3zFj0fJL0dg-bLGXANHs, height=2000, width=3000, html_attributions=[])], place_id=ChIJA9YTje1DXz4RZrQShZg-C5Y, types=[lodging, point_of_interest, establishment], vicinity=1 Sheikh Mohammed bin Rashid Boulevard - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.20621109999999, lng=55.27273220000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Dusit Thani Dubai, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3e3iQtRluTLcnJSa7RZsrv7Gicim8oz2XBF24n-QP0Gf6eBvrj7NSVAT6-Mp8LjZ6dgsjTtiwACaTo9UblJO3kVwTBX97CB6I55nQlUb3aoynRJ_CXnGkWyeHGrflzAYMXmcgzhhgW5PyRvoOhvC35voPAGvSevx1RpKFBa0N6kI7M-, height=4399, width=6623, html_attributions=[])], place_id=ChIJy8SDBI1CXz4RTalWPBQmRJs, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Zayed Road - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1928741, lng=55.27245329999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Ramada by Wyndham Downtown Dubai, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3cFNtjGh7I6ziqjO7D1xnPsu7-6-Vs08MpChASUrD27mGaxKWu6xmdvhT9n8eNStaJQRSgafN5RHCpg872002MSZbyx9JiWVOih9MCXjltptrc0blz0zjg5CF1KwHntikmuAsq7EWSg0hj1kzBmz7-02lY6doVVksjT56pxpD8rLufd, height=400, width=711, html_attributions=[])], place_id=ChIJJxx_kYdCXz4REnJnPtYpvXg, types=[lodging, point_of_interest, establishment], vicinity=Boulevard Street - دبي)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1961266, lng=55.28017759999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png, name=Ribsandrumps, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3eeMF5JZvtDp80U_U772lkL2GISlTnP60evi8QFx2AuZL2_lVmSN_D3FUCakZfYzH0pjsDK4LHV53PBjKPxEVM1s73GZTyjkx7B3FRX_0LyzxAfXzlP0oah06IL5s0VaYzZdxAB40KuAvIVxIBz1JryVdBJA1mVQXfNXsWLqF2A6oUr, height=2880, width=2160, html_attributions=[])], place_id=ChIJw8NQbyhoXz4RzjaPptJmS-A, types=[restaurant, point_of_interest, food, establishment], vicinity=57WJ+F33 - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1918989, lng=55.2727574)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Dream Inn Apartments - 29 Boulevard Private Terrace, opening_hours=null, photos=[Photo(photo_reference=AeJbb3dGcSfs9pM-711u0wR_e7U-E5zxXX4Ay_sy4vseUTvFKsiOLc2RfMjD2aTQSthjft4RGZOvRN0yKXnYNuIguoCza0id2l1JZn5AfOeICwAN0OZhrgw9Xp2oWts65sNnCjylLze7QZqV-kY8iNF2q8UrOmu_GEKT0QgIten-FarzTx8Q, height=4640, width=2088, html_attributions=[])], place_id=ChIJ___PdStoXz4Rvp_e34FnQM0, types=[lodging, point_of_interest, establishment], vicinity=29 Burj Dubai Boulevard - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.19816519999999, lng=55.279212)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=DHL, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3ck0a_mEz22C0qGWWa0Xl0ETenyR-eHPSTQbrpdGgR3RrYkv2jZmPiAvdT4klD7riWRCUsFTNI57G33BtizCro3i-Rzb4KxSU-f3NlIXwE0TOXpQFiUmAaoQTa3GfMA_3hL12ucb17FVcMpn9y2nwruNcJN9ZiIZKx00UdQgNOSc_L0, height=775, width=1550, html_attributions=[])], place_id=ChIJv01pm4JCXz4RkgK89uiHUyU, types=[shopping_mall, point_of_interest, establishment], vicinity=شارع - ٣١٢ - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.19702269999999, lng=55.26989149999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/generic_business-71.png, name=The Lofts - Emaar., opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3dcJdiU49zc1YP3aoktNTaM9GlTw_KTMOMgoQyn53_96mapvm5fuptArQhnPT4DteQ4gJ6ZVcqdKwHV7VR42rQ7h7Fmk5NjfGz00OK16zyx03-xL8YSY6nHToMv7SNTmbyVbNSAPozBGRRAmojDiyn_PN0-nNApIY7kVMSrUGFFkgO7, height=707, width=1600, html_attributions=[])], place_id=ChIJSxsN2X9CXz4RM32iC0h0YnU, types=[point_of_interest, establishment], vicinity=Sheikh Mohammed bin Rashid Boulevard - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1911134, lng=55.2776665)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/lodging-71.png, name=Manzil Downtown By Vida, opening_hours=OpeningHours(open_now=true), photos=[Photo(photo_reference=AeJbb3fzRCO2AOPpY-q4DIzk1U1WNkKqm2f51JSSoYbOTWrbCfD34vjnf22sOCbwYJYpY8SDyWEhAF9HUPvCz3_Ije4iR6eoPWN0vmYLNBEaorBtrFmWVkQ91Nze5zB54AHMi1_LO_mjRN2l79SOBdbLen1NZLXh6xAqEcLw8dQNMO4iaJRa, height=2049, width=2732, html_attributions=[])], place_id=ChIJsVRTwS5oXz4R7xWV3Zb3jxM, types=[lodging, point_of_interest, establishment], vicinity=Sheikh Mohammed Bin Rashed Boulevard, Downtown Dubai, 114822)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.195074, lng=55.2800733)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/generic_business-71.png, name=KidZania, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3cJBtTSeGkLOFqPDA5NsQLSk5FHkmUw5XRNqDmWFbyJj9b-zvqk784dwmv2XiY5wSmBcrOMTHzm3EEQlQ2Vbn9bwts6Uw5lYJ-tZKVmjqqaxfKu9-3rQffR_obIqklfXL5z2tC8IUTPOvPaZdcT4XNaWAnm_xNT8j-8g4U9h1ziYLl-, height=3072, width=4096, html_attributions=[])], place_id=ChIJiykKVyhoXz4RPNxlUTJsgyY, types=[point_of_interest, establishment], vicinity=The Dubai Mall, Second level. Cinema Parking - شارع المركز المالي - دبي)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.1976699, lng=55.27724260000001)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png, name=Louis Vuitton, opening_hours=OpeningHours(open_now=false), photos=[Photo(photo_reference=AeJbb3ffjDFjf40AiXmO_p_DWjel5lcDv3THTGntwBcpdw4evqVprLquaqx93JSPFHhG25qx4xHJBWmHN-6I0p5PXDb2uCdpJ8VKw7loLHpwxIOnzoBNae-OdwQDPfXLALuVJOxMG-KrXoLznG9EU-0Q6PmFdea0RD8DlJucvVl1DVtjVHJq, height=257, width=456, html_attributions=[])], place_id=ChIJN9MwoyhoXz4RZsoWmeYP9Rg, types=[shoe_store, store, point_of_interest, establishment], vicinity=Financial Center Road - Dubai)
+--------------------------------Result(geometry=Geometry(location=Location(lat=25.2190916, lng=55.27910499999999)), icon=https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/geocode-71.png, name=Trade Centre 1, opening_hours=null, photos=[Photo(photo_reference=AeJbb3dzNatBofH46Xly4SOqLs1YlCk8FWt2cweYYaOmzzVVX-JBV6TZftvcntoKZGTbTfLvpWZ1oyF5pnh0DLU_byeCeFpz9QGHIkXPQS3sVh9YG8cAis5LB6RaRkAz3eSrjnex2UnAQfM8AP57M_vmLGEaQRDks8zBSt15RNS1KODP2Za4, height=1840, width=4000, html_attributions=[])], place_id=ChIJB6evL41CXz4RCjaC2TKfBTs, types=[neighborhood, political], vicinity=Trade Centre)
 --------------------------------</t>
   </si>
 </sst>
